--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
   <si>
     <t>土地坐落</t>
   </si>
@@ -244,6 +244,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>正崴</t>
   </si>
   <si>
@@ -281,6 +290,9 @@
   </si>
   <si>
     <t>國泰金</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1534,13 +1546,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1559,13 +1571,22 @@
       <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -1582,13 +1603,22 @@
       <c r="G2" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -1605,13 +1635,22 @@
       <c r="G3" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -1628,13 +1667,22 @@
       <c r="G4" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -1651,13 +1699,22 @@
       <c r="G5" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -1674,13 +1731,22 @@
       <c r="G6" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -1697,13 +1763,22 @@
       <c r="G7" s="2">
         <v>53000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -1720,13 +1795,22 @@
       <c r="G8" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -1743,13 +1827,22 @@
       <c r="G9" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -1766,13 +1859,22 @@
       <c r="G10" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -1789,13 +1891,22 @@
       <c r="G11" s="2">
         <v>40610</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -1812,13 +1923,22 @@
       <c r="G12" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1835,13 +1955,22 @@
       <c r="G13" s="2">
         <v>133000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -1858,13 +1987,22 @@
       <c r="G14" s="2">
         <v>108130</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -1880,6 +2018,15 @@
       </c>
       <c r="G15" s="2">
         <v>112450</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -1897,22 +2044,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>52</v>
@@ -1923,13 +2070,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -1949,13 +2096,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -1975,13 +2122,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -2001,13 +2148,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -2027,13 +2174,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -2053,13 +2200,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -2079,13 +2226,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -2105,13 +2252,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -2141,16 +2288,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2158,10 +2305,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -2175,10 +2322,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -2192,10 +2339,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -2209,10 +2356,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
   <si>
     <t>土地坐落</t>
   </si>
@@ -244,6 +244,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -283,13 +286,16 @@
     <t>南電</t>
   </si>
   <si>
-    <t>勤益 '</t>
+    <t>勤益</t>
   </si>
   <si>
     <t>聯強</t>
   </si>
   <si>
     <t>國泰金</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-26</t>
@@ -1546,13 +1552,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1580,13 +1586,16 @@
       <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -1604,21 +1613,24 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="2">
+        <v>92</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -1636,21 +1648,24 @@
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="2">
+        <v>92</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -1668,21 +1683,24 @@
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="2">
+        <v>92</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -1700,21 +1718,24 @@
         <v>50000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="2">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -1732,21 +1753,24 @@
         <v>20000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="2">
+        <v>92</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -1764,21 +1788,24 @@
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2">
+        <v>92</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -1796,21 +1823,24 @@
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="2">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -1828,21 +1858,24 @@
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="2">
+        <v>92</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -1860,21 +1893,24 @@
         <v>200000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="2">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -1892,21 +1928,24 @@
         <v>40610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="2">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -1924,21 +1963,24 @@
         <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2">
+        <v>92</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1956,21 +1998,24 @@
         <v>133000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="2">
+        <v>92</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -1988,21 +2033,24 @@
         <v>108130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="2">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2">
         <v>1701</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -2020,12 +2068,15 @@
         <v>112450</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="2">
+        <v>92</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="2">
         <v>1701</v>
       </c>
     </row>
@@ -2044,22 +2095,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>52</v>
@@ -2070,13 +2121,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2096,13 +2147,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2122,13 +2173,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -2148,13 +2199,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -2174,13 +2225,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -2200,13 +2251,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -2226,13 +2277,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -2252,13 +2303,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -2288,16 +2339,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2305,10 +2356,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -2322,10 +2373,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -2339,10 +2390,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -2356,10 +2407,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="123">
   <si>
     <t>土地坐落</t>
   </si>
@@ -247,6 +247,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -256,6 +259,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>正崴</t>
   </si>
   <si>
@@ -298,7 +307,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmp4a4e1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1552,13 +1567,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1589,13 +1604,22 @@
       <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -1613,24 +1637,33 @@
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -1648,24 +1681,33 @@
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="2">
+        <v>96</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -1683,24 +1725,33 @@
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -1718,24 +1769,33 @@
         <v>50000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -1753,24 +1813,33 @@
         <v>20000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="2">
+        <v>96</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -1788,24 +1857,33 @@
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="2">
+        <v>96</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -1823,24 +1901,33 @@
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="2">
+        <v>96</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -1858,24 +1945,33 @@
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="2">
+        <v>96</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -1893,24 +1989,33 @@
         <v>200000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="2">
+        <v>96</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -1928,24 +2033,33 @@
         <v>40610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="2">
+        <v>96</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
@@ -1963,24 +2077,33 @@
         <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="2">
+        <v>96</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1998,24 +2121,33 @@
         <v>133000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="2">
+        <v>96</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="2">
         <v>1701</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -2033,24 +2165,33 @@
         <v>108130</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="2">
         <v>91</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
@@ -2068,16 +2209,25 @@
         <v>112450</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="2">
         <v>92</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -2095,22 +2245,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>52</v>
@@ -2121,13 +2271,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2147,13 +2297,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2173,13 +2323,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -2199,13 +2349,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -2225,13 +2375,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -2251,13 +2401,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -2277,13 +2427,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -2303,13 +2453,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -2339,16 +2489,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2356,10 +2506,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>44</v>
@@ -2373,10 +2523,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -2390,10 +2540,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -2407,10 +2557,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,9 +20,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="123">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="128">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08830000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段08910000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花圜段08920000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花圜段08930000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屛東市花圜段08930001地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市前進段04830000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市前進段05100000地號</t>
+  </si>
+  <si>
+    <t>屏東縣屛東市清溪段01400000地號</t>
+  </si>
+  <si>
+    <t>屛東縣屏東市前進段05100000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>9分之1</t>
+  </si>
+  <si>
+    <t>9分之3</t>
+  </si>
+  <si>
+    <t>周麗容</t>
+  </si>
+  <si>
+    <t>王〇聿</t>
+  </si>
+  <si>
+    <t>王◦聿</t>
+  </si>
+  <si>
+    <t>92年09月09H</t>
+  </si>
+  <si>
+    <t>92年09月09日</t>
+  </si>
+  <si>
+    <t>96年09月14日</t>
+  </si>
+  <si>
+    <t>96年03月29日</t>
+  </si>
+  <si>
+    <t>100年08月12曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝石年)</t>
+  </si>
+  <si>
+    <t>(超過f{年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>王進士</t>
+  </si>
+  <si>
+    <t>tmp4a4e1</t>
+  </si>
+  <si>
+    <t>建物標不</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,100 +178,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣屏東市花園段0883-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段0891 -0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花圜段0892-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花圜段0893-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屛東市花圜段0893-0001 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市前進段0483-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市前進段0510-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屛東市清溪段0140-0000 地號</t>
-  </si>
-  <si>
-    <t>屛東縣屏東市前進段0510-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>9分之1</t>
-  </si>
-  <si>
-    <t>9分之3</t>
-  </si>
-  <si>
-    <t>周麗容</t>
-  </si>
-  <si>
-    <t>王〇聿</t>
-  </si>
-  <si>
-    <t>王◦聿</t>
-  </si>
-  <si>
-    <t>92年09月 09 H</t>
-  </si>
-  <si>
-    <t>92年09月 09日</t>
-  </si>
-  <si>
-    <t>96年09月 14日</t>
-  </si>
-  <si>
-    <t>96年03月 29日</t>
-  </si>
-  <si>
-    <t>100 年 08 月12曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝石年)</t>
-  </si>
-  <si>
-    <t>(超過f{年）</t>
-  </si>
-  <si>
-    <t>建物標不</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段00285-000 建號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市花園段01742-000</t>
-  </si>
-  <si>
-    <t>100 年 09</t>
+    <t>屏東縣屏東市花園段00285000建號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市花園段01742000</t>
+  </si>
+  <si>
+    <t>100年09</t>
   </si>
   <si>
     <t>(重建）</t>
   </si>
   <si>
-    <t>2,581，400</t>
+    <t>2581400</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -148,22 +202,19 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>歐普 CORA1.4</t>
+    <t>歐普CORA1.4</t>
   </si>
   <si>
     <t>HONDA</t>
   </si>
   <si>
-    <t>王進士</t>
-  </si>
-  <si>
-    <t>88年04月 13曰</t>
-  </si>
-  <si>
-    <t>101 年 02 月10曰</t>
-  </si>
-  <si>
-    <t>101 年 04 月02日</t>
+    <t>88年04月13曰</t>
+  </si>
+  <si>
+    <t>101年02月10曰</t>
+  </si>
+  <si>
+    <t>101年04月02日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -181,19 +232,19 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行東圜分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行屏東分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行屏東分 行</t>
+    <t>臺灣新光商業銀行東圜分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行屏東分行</t>
   </si>
   <si>
     <t>臺灣銀行屏東分行</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行東園分 行</t>
+    <t>臺灣新光商業銀行東園分行</t>
   </si>
   <si>
     <t>玉山商業銀行屏東分行</t>
@@ -202,13 +253,13 @@
     <t>陽信商業銀行屏東分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司屏 東市林森路郵局</t>
+    <t>中華郵政股份有限公司屏東市林森路郵局</t>
   </si>
   <si>
     <t>第一商業銀行屏東分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行屏東分 行</t>
+    <t>台新國際商業銀行屏東分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -226,12 +277,6 @@
     <t>壬進士</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -244,27 +289,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>正崴</t>
   </si>
   <si>
@@ -307,15 +331,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-26</t>
-  </si>
-  <si>
-    <t>tmp4a4e1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -331,28 +346,28 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>摩根富林明龍揚 基金</t>
-  </si>
-  <si>
-    <t>摩根富林明全球 a基金</t>
-  </si>
-  <si>
-    <t>霸菱全球資源-美元</t>
-  </si>
-  <si>
-    <t>富達拉丁美洲基 金美元</t>
-  </si>
-  <si>
-    <t>富達印度聚焦-美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 -美元</t>
-  </si>
-  <si>
-    <t>貝萊德中國基金 -美兀</t>
-  </si>
-  <si>
-    <t>中華郵政股份 有限公司屏東 市林森郵局</t>
+    <t>摩根富林明龍揚基金</t>
+  </si>
+  <si>
+    <t>摩根富林明全球a基金</t>
+  </si>
+  <si>
+    <t>霸菱全球資源美元</t>
+  </si>
+  <si>
+    <t>富達拉丁美洲基金美元</t>
+  </si>
+  <si>
+    <t>富達印度聚焦美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業美元</t>
+  </si>
+  <si>
+    <t>貝萊德中國基金美兀</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司屏東市林森郵局</t>
   </si>
   <si>
     <t>第一商業銀行</t>
@@ -747,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,291 +790,543 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>587</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
         <v>73048</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>194</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2">
         <v>53457</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1946</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2">
         <v>86488</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>587</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2">
         <v>549256</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>194</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2">
         <v>181526</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>1946</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2">
         <v>1820872</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1077,25 +1344,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1103,25 +1370,25 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>30.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1129,25 +1396,25 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>178.76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1165,22 +1432,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1188,19 +1455,19 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1388</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
@@ -1211,19 +1478,19 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>2354</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2">
         <v>1029000</v>
@@ -1234,19 +1501,19 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2">
         <v>1339</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2">
         <v>900000</v>
@@ -1267,22 +1534,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1290,16 +1557,16 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1311,16 +1578,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1332,16 +1599,16 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1353,16 +1620,16 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1374,16 +1641,16 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1395,16 +1662,16 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1416,16 +1683,16 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1437,16 +1704,16 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1458,16 +1725,16 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1479,16 +1746,16 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1500,16 +1767,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1521,16 +1788,16 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1542,16 +1809,16 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2">
         <v>20328.17</v>
@@ -1575,43 +1842,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1619,10 +1886,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2">
         <v>5000</v>
@@ -1631,28 +1898,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2">
         <v>1701</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>79</v>
@@ -1663,10 +1930,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>5000</v>
@@ -1675,28 +1942,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2">
         <v>1701</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2">
         <v>80</v>
@@ -1707,10 +1974,10 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2">
         <v>15000</v>
@@ -1719,28 +1986,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2">
         <v>1701</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>81</v>
@@ -1751,10 +2018,10 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>5000</v>
@@ -1763,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2">
         <v>50000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2">
         <v>1701</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2">
         <v>82</v>
@@ -1795,10 +2062,10 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2">
         <v>2000</v>
@@ -1807,28 +2074,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2">
         <v>20000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2">
         <v>1701</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2">
         <v>83</v>
@@ -1839,10 +2106,10 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
         <v>5300</v>
@@ -1851,28 +2118,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2">
         <v>1701</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2">
         <v>84</v>
@@ -1883,10 +2150,10 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
         <v>20000</v>
@@ -1895,28 +2162,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2">
         <v>1701</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>85</v>
@@ -1927,10 +2194,10 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
         <v>2000</v>
@@ -1939,28 +2206,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="2">
         <v>1701</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N9" s="2">
         <v>86</v>
@@ -1971,10 +2238,10 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
         <v>20000</v>
@@ -1983,28 +2250,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="2">
         <v>1701</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N10" s="2">
         <v>87</v>
@@ -2015,10 +2282,10 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2">
         <v>4061</v>
@@ -2027,28 +2294,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2">
         <v>40610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="2">
         <v>1701</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2">
         <v>88</v>
@@ -2059,10 +2326,10 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>10000</v>
@@ -2071,28 +2338,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2">
         <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="2">
         <v>1701</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N12" s="2">
         <v>89</v>
@@ -2103,10 +2370,10 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>13300</v>
@@ -2115,28 +2382,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2">
         <v>133000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="2">
         <v>1701</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2">
         <v>90</v>
@@ -2147,10 +2414,10 @@
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>10813</v>
@@ -2159,28 +2426,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2">
         <v>108130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="2">
         <v>1701</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N14" s="2">
         <v>91</v>
@@ -2191,10 +2458,10 @@
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
         <v>11245</v>
@@ -2203,28 +2470,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2">
         <v>112450</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="2">
         <v>1701</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2">
         <v>92</v>
@@ -2245,25 +2512,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2271,13 +2538,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2286,7 +2553,7 @@
         <v>19.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2">
         <v>78201</v>
@@ -2297,13 +2564,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2312,7 +2579,7 @@
         <v>11.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
         <v>88680</v>
@@ -2323,13 +2590,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -2338,7 +2605,7 @@
         <v>25.52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2">
         <v>241674</v>
@@ -2349,13 +2616,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -2364,7 +2631,7 @@
         <v>45.44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2">
         <v>139055</v>
@@ -2375,13 +2642,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -2390,7 +2657,7 @@
         <v>28.05</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2">
         <v>130181</v>
@@ -2401,13 +2668,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -2416,7 +2683,7 @@
         <v>64.7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2">
         <v>87098</v>
@@ -2427,13 +2694,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -2442,7 +2709,7 @@
         <v>64.7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2">
         <v>134981</v>
@@ -2453,13 +2720,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -2468,7 +2735,7 @@
         <v>11.19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2">
         <v>148424</v>
@@ -2489,16 +2756,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2506,13 +2773,13 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
@@ -2523,13 +2790,13 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
@@ -2540,13 +2807,13 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>4415000</v>
@@ -2557,13 +2824,13 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>345281</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣屏東市花園段08830000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣屏東市花園段08910000地號</t>
@@ -109,9 +112,6 @@
     <t>王◦聿</t>
   </si>
   <si>
-    <t>92年09月09H</t>
-  </si>
-  <si>
     <t>92年09月09日</t>
   </si>
   <si>
@@ -157,27 +157,6 @@
     <t>tmp4a4e1</t>
   </si>
   <si>
-    <t>建物標不</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>屏東縣屏東市花園段00285000建號</t>
   </si>
   <si>
@@ -193,48 +172,30 @@
     <t>2581400</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>歐普CORA1.4</t>
   </si>
   <si>
+    <t>88年04月13曰</t>
+  </si>
+  <si>
     <t>HONDA</t>
   </si>
   <si>
-    <t>88年04月13曰</t>
-  </si>
-  <si>
     <t>101年02月10曰</t>
   </si>
   <si>
     <t>101年04月02日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣新光商業銀行東圜分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行屏東分行</t>
   </si>
   <si>
@@ -262,15 +223,9 @@
     <t>台新國際商業銀行屏東分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -286,12 +241,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>正崴</t>
-  </si>
-  <si>
     <t>友達</t>
   </si>
   <si>
@@ -331,24 +280,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>摩根富林明龍揚基金</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司屏東市林森郵局</t>
+  </si>
+  <si>
     <t>摩根富林明全球a基金</t>
   </si>
   <si>
@@ -367,34 +304,19 @@
     <t>貝萊德中國基金美兀</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司屏東市林森郵局</t>
-  </si>
-  <si>
     <t>第一商業銀行</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>臺銀人壽</t>
   </si>
   <si>
+    <t>美麗人生萬能保險</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
     <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>美麗人生萬能保險</t>
   </si>
   <si>
     <t>牛轉錢坤萬能保險</t>
@@ -762,13 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,25 +733,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>34</v>
@@ -856,24 +784,30 @@
         <v>44</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>30</v>
@@ -903,33 +837,39 @@
         <v>44</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>40</v>
@@ -950,33 +890,39 @@
         <v>44</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>40</v>
@@ -997,33 +943,39 @@
         <v>44</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>190</v>
+        <v>587</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="2">
+        <v>73048</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>40</v>
@@ -1044,33 +996,39 @@
         <v>44</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>65.2222222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>587</v>
+        <v>194</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="2">
-        <v>73048</v>
+        <v>53457</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>40</v>
@@ -1091,21 +1049,27 @@
         <v>44</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>21.5555555555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>194</v>
+        <v>1946</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1117,7 +1081,7 @@
         <v>36</v>
       </c>
       <c r="H8" s="2">
-        <v>53457</v>
+        <v>86488</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>40</v>
@@ -1138,33 +1102,39 @@
         <v>44</v>
       </c>
       <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>216.222222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="2">
-        <v>1946</v>
+        <v>587</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
-        <v>86488</v>
+        <v>549256</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>40</v>
@@ -1185,21 +1155,27 @@
         <v>44</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>195.666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>587</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1211,7 +1187,7 @@
         <v>34</v>
       </c>
       <c r="H10" s="2">
-        <v>549256</v>
+        <v>181526</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
@@ -1232,24 +1208,30 @@
         <v>44</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>64.6666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>194</v>
+        <v>1946</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>33</v>
@@ -1258,7 +1240,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="2">
-        <v>181526</v>
+        <v>1820872</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>40</v>
@@ -1279,54 +1261,13 @@
         <v>44</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1946</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1820872</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1701</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="2">
-        <v>24</v>
+      <c r="P11" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>648.666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1346,75 +1287,49 @@
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
+      <c r="C1" s="1">
+        <v>30.36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
-        <v>30.36</v>
+        <v>178.76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2">
-        <v>178.76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1339,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1432,90 +1347,67 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1388</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="G1" s="1">
+        <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
-        <v>1388</v>
+        <v>2354</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="2">
-        <v>500000</v>
+        <v>1029000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
-        <v>2354</v>
+        <v>1339</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="2">
-        <v>1029000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1339</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2">
         <v>900000</v>
       </c>
     </row>
@@ -1526,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1534,296 +1426,273 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>565207</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>565207</v>
+        <v>613719</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>613719</v>
+        <v>386058</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>386058</v>
+        <v>443086</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>443086</v>
+        <v>1224300</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1224300</v>
+        <v>479601</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>479601</v>
+        <v>122310</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>122310</v>
+        <v>451087</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>451087</v>
+        <v>1635160</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1635160</v>
+        <v>62579</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>62579</v>
+        <v>10676</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>10676</v>
+        <v>111794</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20328.17</v>
+      </c>
       <c r="G13" s="2">
-        <v>111794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="2">
-        <v>20328.17</v>
-      </c>
-      <c r="G14" s="2">
         <v>589516.93</v>
       </c>
     </row>
@@ -1834,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1848,16 +1717,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1883,10 +1752,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -1898,13 +1767,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1922,33 +1791,33 @@
         <v>44</v>
       </c>
       <c r="N2" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>41</v>
@@ -1966,33 +1835,33 @@
         <v>44</v>
       </c>
       <c r="N3" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>41</v>
@@ -2010,33 +1879,33 @@
         <v>44</v>
       </c>
       <c r="N4" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>41</v>
@@ -2054,33 +1923,33 @@
         <v>44</v>
       </c>
       <c r="N5" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
-        <v>20000</v>
+        <v>53000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>41</v>
@@ -2098,33 +1967,33 @@
         <v>44</v>
       </c>
       <c r="N6" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>5300</v>
+        <v>20000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
-        <v>53000</v>
+        <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>41</v>
@@ -2142,33 +2011,33 @@
         <v>44</v>
       </c>
       <c r="N7" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -2186,33 +2055,33 @@
         <v>44</v>
       </c>
       <c r="N8" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -2230,33 +2099,33 @@
         <v>44</v>
       </c>
       <c r="N9" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>20000</v>
+        <v>4061</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2">
-        <v>200000</v>
+        <v>40610</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>41</v>
@@ -2274,33 +2143,33 @@
         <v>44</v>
       </c>
       <c r="N10" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>4061</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2">
-        <v>40610</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -2318,33 +2187,33 @@
         <v>44</v>
       </c>
       <c r="N11" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>10000</v>
+        <v>13300</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2">
-        <v>100000</v>
+        <v>133000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>41</v>
@@ -2362,33 +2231,33 @@
         <v>44</v>
       </c>
       <c r="N12" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>13300</v>
+        <v>10813</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2">
-        <v>133000</v>
+        <v>108130</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>41</v>
@@ -2406,33 +2275,33 @@
         <v>44</v>
       </c>
       <c r="N13" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>10813</v>
+        <v>11245</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G14" s="2">
-        <v>108130</v>
+        <v>112450</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>41</v>
@@ -2450,50 +2319,6 @@
         <v>44</v>
       </c>
       <c r="N14" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>92</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11245</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="2">
-        <v>112450</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1701</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2504,7 +2329,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2512,232 +2337,206 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3927.7</v>
+      </c>
+      <c r="F1" s="1">
+        <v>19.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="H1" s="1">
+        <v>78201</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
-        <v>3927.7</v>
+        <v>7806.4</v>
       </c>
       <c r="F2" s="2">
-        <v>19.91</v>
+        <v>11.36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
-        <v>78201</v>
+        <v>88680</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
-        <v>7806.4</v>
+        <v>326.552</v>
       </c>
       <c r="F3" s="2">
-        <v>11.36</v>
+        <v>25.52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2">
-        <v>88680</v>
+        <v>241674</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
-        <v>326.552</v>
+        <v>105.53</v>
       </c>
       <c r="F4" s="2">
-        <v>25.52</v>
+        <v>45.44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
-        <v>241674</v>
+        <v>139055</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
-        <v>105.53</v>
+        <v>160.05</v>
       </c>
       <c r="F5" s="2">
-        <v>45.44</v>
+        <v>28.05</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
-        <v>139055</v>
+        <v>130181</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
-        <v>160.05</v>
+        <v>46.42</v>
       </c>
       <c r="F6" s="2">
-        <v>28.05</v>
+        <v>64.7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
-        <v>130181</v>
+        <v>87098</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
-        <v>46.42</v>
+        <v>71.9</v>
       </c>
       <c r="F7" s="2">
         <v>64.7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
-        <v>87098</v>
+        <v>134981</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
-        <v>71.9</v>
+        <v>457.38</v>
       </c>
       <c r="F8" s="2">
-        <v>64.7</v>
+        <v>11.19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
-        <v>134981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>110</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="2">
-        <v>457.38</v>
-      </c>
-      <c r="F9" s="2">
-        <v>11.19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="2">
         <v>148424</v>
       </c>
     </row>
@@ -2748,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2756,27 +2555,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>43</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2000000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -2787,52 +2586,35 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
-        <v>2000000</v>
+        <v>4415000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
-        <v>4415000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>126</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
         <v>345281</v>
       </c>
     </row>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣屏東市花園段08830000地號</t>
+  </si>
+  <si>
     <t>屏東縣屏東市花園段08910000地號</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>王◦聿</t>
   </si>
   <si>
+    <t>92年09月09H</t>
+  </si>
+  <si>
     <t>92年09月09日</t>
   </si>
   <si>
@@ -239,6 +245,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>正崴</t>
   </si>
   <si>
     <t>友達</t>
@@ -684,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,225 +751,225 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M2" s="2">
         <v>1701</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2">
         <v>1701</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4" s="2">
         <v>1701</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5" s="2">
         <v>1701</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>587</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
@@ -969,157 +978,157 @@
         <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="2">
-        <v>73048</v>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2">
         <v>1701</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.111111111111111</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>65.2222222222222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>194</v>
+        <v>587</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2">
-        <v>53457</v>
+        <v>73048</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" s="2">
         <v>1701</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.111111111111111</v>
       </c>
       <c r="Q7" s="2">
-        <v>21.5555555555556</v>
+        <v>65.2222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1946</v>
+        <v>194</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
-        <v>86488</v>
+        <v>53457</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="2">
         <v>1701</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.111111111111111</v>
       </c>
       <c r="Q8" s="2">
-        <v>216.222222222222</v>
+        <v>21.5555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>587</v>
+        <v>1946</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -1128,145 +1137,198 @@
         <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2">
-        <v>549256</v>
+        <v>86488</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M9" s="2">
         <v>1701</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.333333333333333</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="Q9" s="2">
-        <v>195.666666666667</v>
+        <v>216.222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
-        <v>194</v>
+        <v>587</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2">
-        <v>181526</v>
+        <v>549256</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M10" s="2">
         <v>1701</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q10" s="2">
-        <v>64.6666666666667</v>
+        <v>195.666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="2">
-        <v>1946</v>
+        <v>194</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
-        <v>1820872</v>
+        <v>181526</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M11" s="2">
         <v>1701</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q11" s="2">
+        <v>64.6666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1946</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1820872</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q12" s="2">
         <v>648.666666666667</v>
       </c>
     </row>
@@ -1277,59 +1339,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
         <v>30.36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2">
+        <v>178.76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>178.76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1347,19 +1516,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1">
         <v>1388</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1">
         <v>500000</v>
@@ -1367,47 +1536,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2">
-        <v>2354</v>
+        <v>1388</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
-        <v>1029000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2354</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1029000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2">
         <v>1339</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2">
         <v>900000</v>
       </c>
     </row>
@@ -1418,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1426,16 +1618,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1444,255 +1636,276 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>613719</v>
+        <v>565207</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>386058</v>
+        <v>613719</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>443086</v>
+        <v>386058</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1224300</v>
+        <v>443086</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>479601</v>
+        <v>1224300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>122310</v>
+        <v>479601</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>451087</v>
+        <v>122310</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1635160</v>
+        <v>451087</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>62579</v>
+        <v>1635160</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>10676</v>
+        <v>62579</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>111794</v>
+        <v>10676</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>111794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>72</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2">
         <v>20328.17</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>589516.93</v>
       </c>
     </row>
@@ -1703,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1717,13 +1930,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1752,13 +1965,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
         <v>5000</v>
@@ -1767,558 +1980,602 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2">
         <v>1701</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2">
         <v>1701</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2">
         <v>1701</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2">
         <v>1701</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
-        <v>5300</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2">
-        <v>53000</v>
+        <v>20000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2">
         <v>1701</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
-        <v>20000</v>
+        <v>5300</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
-        <v>200000</v>
+        <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2">
         <v>1701</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2">
         <v>1701</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2">
         <v>1701</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N9" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>4061</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2">
-        <v>40610</v>
+        <v>200000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L10" s="2">
         <v>1701</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N10" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>10000</v>
+        <v>4061</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2">
-        <v>100000</v>
+        <v>40610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2">
         <v>1701</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N11" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>13300</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2">
-        <v>133000</v>
+        <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L12" s="2">
         <v>1701</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N12" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>10813</v>
+        <v>13300</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2">
-        <v>108130</v>
+        <v>133000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2">
         <v>1701</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N13" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>11245</v>
+        <v>10813</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>112450</v>
+        <v>108130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L14" s="2">
         <v>1701</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>11245</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2">
+        <v>112450</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="2">
+      <c r="K15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2329,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2337,13 +2594,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>3927.7</v>
@@ -2352,7 +2609,7 @@
         <v>19.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1">
         <v>78201</v>
@@ -2360,183 +2617,209 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
-        <v>7806.4</v>
+        <v>3927.7</v>
       </c>
       <c r="F2" s="2">
-        <v>11.36</v>
+        <v>19.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
-        <v>88680</v>
+        <v>78201</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
-        <v>326.552</v>
+        <v>7806.4</v>
       </c>
       <c r="F3" s="2">
-        <v>25.52</v>
+        <v>11.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2">
-        <v>241674</v>
+        <v>88680</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
-        <v>105.53</v>
+        <v>326.552</v>
       </c>
       <c r="F4" s="2">
-        <v>45.44</v>
+        <v>25.52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
-        <v>139055</v>
+        <v>241674</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
-        <v>160.05</v>
+        <v>105.53</v>
       </c>
       <c r="F5" s="2">
-        <v>28.05</v>
+        <v>45.44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2">
-        <v>130181</v>
+        <v>139055</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
-        <v>46.42</v>
+        <v>160.05</v>
       </c>
       <c r="F6" s="2">
-        <v>64.7</v>
+        <v>28.05</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2">
-        <v>87098</v>
+        <v>130181</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2">
-        <v>71.9</v>
+        <v>46.42</v>
       </c>
       <c r="F7" s="2">
         <v>64.7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2">
-        <v>134981</v>
+        <v>87098</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>109</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2">
+        <v>71.9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>64.7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2">
+        <v>134981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>110</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="2">
         <v>457.38</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>11.19</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="2">
         <v>148424</v>
       </c>
     </row>
@@ -2547,7 +2830,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2555,13 +2838,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
@@ -2569,16 +2852,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
@@ -2586,35 +2869,52 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
-        <v>4415000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4415000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>126</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
         <v>345281</v>
       </c>
     </row>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -178,13 +178,16 @@
     <t>2581400</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>歐普CORA1.4</t>
   </si>
   <si>
+    <t>HONDA</t>
+  </si>
+  <si>
     <t>88年04月13曰</t>
-  </si>
-  <si>
-    <t>HONDA</t>
   </si>
   <si>
     <t>101年02月10曰</t>
@@ -1508,38 +1511,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1">
-        <v>1388</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>1388</v>
@@ -1548,7 +1572,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -1556,8 +1580,29 @@
       <c r="G2" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>43</v>
       </c>
@@ -1571,7 +1616,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
@@ -1579,8 +1624,29 @@
       <c r="G3" s="2">
         <v>1029000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>44</v>
       </c>
@@ -1594,13 +1660,34 @@
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>900000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1618,13 +1705,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>45</v>
@@ -1639,13 +1726,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -1660,16 +1747,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1681,13 +1768,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>45</v>
@@ -1702,13 +1789,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>45</v>
@@ -1723,13 +1810,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
@@ -1744,13 +1831,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>45</v>
@@ -1765,13 +1852,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
@@ -1786,13 +1873,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -1807,13 +1894,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1828,13 +1915,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -1849,13 +1936,13 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -1870,13 +1957,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>
@@ -1891,13 +1978,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
@@ -1930,13 +2017,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1968,7 +2055,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -1980,13 +2067,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -2012,7 +2099,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -2024,13 +2111,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -2056,7 +2143,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -2068,13 +2155,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -2100,7 +2187,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -2112,13 +2199,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
         <v>50000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -2144,7 +2231,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -2156,13 +2243,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
         <v>20000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -2188,7 +2275,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
@@ -2200,13 +2287,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>43</v>
@@ -2232,7 +2319,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
@@ -2244,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>43</v>
@@ -2276,7 +2363,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -2288,13 +2375,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -2320,7 +2407,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>45</v>
@@ -2332,13 +2419,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -2364,7 +2451,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
@@ -2376,13 +2463,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2">
         <v>40610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -2408,7 +2495,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2420,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2">
         <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>43</v>
@@ -2452,7 +2539,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -2464,13 +2551,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
         <v>133000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -2496,7 +2583,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2508,13 +2595,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2">
         <v>108130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>43</v>
@@ -2540,7 +2627,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
@@ -2552,13 +2639,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2">
         <v>112450</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>43</v>
@@ -2594,13 +2681,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>3927.7</v>
@@ -2609,7 +2696,7 @@
         <v>19.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1">
         <v>78201</v>
@@ -2620,13 +2707,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2635,7 +2722,7 @@
         <v>19.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>78201</v>
@@ -2646,13 +2733,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2661,7 +2748,7 @@
         <v>11.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>88680</v>
@@ -2672,13 +2759,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -2687,7 +2774,7 @@
         <v>25.52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2">
         <v>241674</v>
@@ -2698,13 +2785,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -2713,7 +2800,7 @@
         <v>45.44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2">
         <v>139055</v>
@@ -2724,13 +2811,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -2739,7 +2826,7 @@
         <v>28.05</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2">
         <v>130181</v>
@@ -2750,13 +2837,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -2765,7 +2852,7 @@
         <v>64.7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2">
         <v>87098</v>
@@ -2776,13 +2863,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -2791,7 +2878,7 @@
         <v>64.7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>134981</v>
@@ -2802,13 +2889,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -2817,7 +2904,7 @@
         <v>11.19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2">
         <v>148424</v>
@@ -2838,10 +2925,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -2855,10 +2942,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
@@ -2872,10 +2959,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
@@ -2889,10 +2976,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -2906,10 +2993,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -178,6 +178,9 @@
     <t>2581400</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>101年04月02日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣新光商業銀行東圜分行</t>
@@ -1424,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>43</v>
@@ -1477,7 +1483,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>43</v>
@@ -1522,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1563,7 +1569,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>1388</v>
@@ -1572,7 +1578,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>36</v>
@@ -1581,7 +1587,7 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -1607,7 +1613,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>2354</v>
@@ -1616,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
@@ -1625,7 +1631,7 @@
         <v>1029000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -1651,7 +1657,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>1339</v>
@@ -1660,7 +1666,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
@@ -1669,7 +1675,7 @@
         <v>900000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -1705,13 +1711,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>45</v>
@@ -1726,13 +1732,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -1747,16 +1753,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1768,13 +1774,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>45</v>
@@ -1789,13 +1795,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>45</v>
@@ -1810,13 +1816,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
@@ -1831,13 +1837,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>45</v>
@@ -1852,13 +1858,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
@@ -1873,13 +1879,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -1894,13 +1900,13 @@
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1915,13 +1921,13 @@
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -1936,13 +1942,13 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -1957,13 +1963,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>
@@ -1978,13 +1984,13 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
@@ -2017,13 +2023,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2055,7 +2061,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -2067,13 +2073,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -2099,7 +2105,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -2111,13 +2117,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -2143,7 +2149,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -2155,13 +2161,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -2187,7 +2193,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -2199,13 +2205,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
         <v>50000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -2231,7 +2237,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -2243,13 +2249,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>20000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -2275,7 +2281,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
@@ -2287,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>43</v>
@@ -2319,7 +2325,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
@@ -2331,13 +2337,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>43</v>
@@ -2363,7 +2369,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -2375,13 +2381,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -2407,7 +2413,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>45</v>
@@ -2419,13 +2425,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -2451,7 +2457,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
@@ -2463,13 +2469,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2">
         <v>40610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -2495,7 +2501,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2507,13 +2513,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2">
         <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>43</v>
@@ -2539,7 +2545,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -2551,13 +2557,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2">
         <v>133000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -2583,7 +2589,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2595,13 +2601,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2">
         <v>108130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>43</v>
@@ -2627,7 +2633,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
@@ -2639,13 +2645,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2">
         <v>112450</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>43</v>
@@ -2681,13 +2687,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1">
         <v>3927.7</v>
@@ -2696,7 +2702,7 @@
         <v>19.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1">
         <v>78201</v>
@@ -2707,13 +2713,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2722,7 +2728,7 @@
         <v>19.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>78201</v>
@@ -2733,13 +2739,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2748,7 +2754,7 @@
         <v>11.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2">
         <v>88680</v>
@@ -2759,13 +2765,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -2774,7 +2780,7 @@
         <v>25.52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2">
         <v>241674</v>
@@ -2785,13 +2791,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -2800,7 +2806,7 @@
         <v>45.44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2">
         <v>139055</v>
@@ -2811,13 +2817,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -2826,7 +2832,7 @@
         <v>28.05</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2">
         <v>130181</v>
@@ -2837,13 +2843,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -2852,7 +2858,7 @@
         <v>64.7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2">
         <v>87098</v>
@@ -2863,13 +2869,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -2878,7 +2884,7 @@
         <v>64.7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2">
         <v>134981</v>
@@ -2889,13 +2895,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -2904,7 +2910,7 @@
         <v>11.19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2">
         <v>148424</v>
@@ -2925,10 +2931,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -2942,10 +2948,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
@@ -2959,10 +2965,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
@@ -2976,10 +2982,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -2993,10 +2999,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -202,58 +202,67 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣新光商業銀行東圜分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行東園分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司屏東市林森路郵局</t>
+  </si>
+  <si>
+    <t>第一商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行屏東分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行屏東分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行東園分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司屏東市林森路郵局</t>
-  </si>
-  <si>
-    <t>第一商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>壬進士</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>正崴</t>
@@ -1703,13 +1712,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
@@ -1720,286 +1729,564 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>565207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>565207</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2">
         <v>613719</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2">
+        <v>386058</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>386058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
+        <v>443086</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
         <v>62</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>443086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1224300</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>479601</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>122310</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>451087</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>1635160</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>62579</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>10676</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>111794</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2">
-        <v>20328.17</v>
-      </c>
-      <c r="G14" s="2">
         <v>589516.93</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1701</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2023,13 +2310,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2061,7 +2348,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -2073,13 +2360,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>50000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>43</v>
@@ -2105,7 +2392,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -2117,13 +2404,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2">
         <v>50000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>43</v>
@@ -2149,7 +2436,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -2161,13 +2448,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2">
         <v>150000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>43</v>
@@ -2193,7 +2480,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -2205,13 +2492,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G5" s="2">
         <v>50000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>43</v>
@@ -2237,7 +2524,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -2249,13 +2536,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2">
         <v>20000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>43</v>
@@ -2281,7 +2568,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
@@ -2293,13 +2580,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2">
         <v>53000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>43</v>
@@ -2325,7 +2612,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
@@ -2337,13 +2624,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>43</v>
@@ -2369,7 +2656,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -2381,13 +2668,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2">
         <v>20000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -2413,7 +2700,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>45</v>
@@ -2425,13 +2712,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2">
         <v>200000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -2457,7 +2744,7 @@
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>45</v>
@@ -2469,13 +2756,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2">
         <v>40610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -2501,7 +2788,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2513,13 +2800,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2">
         <v>100000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>43</v>
@@ -2545,7 +2832,7 @@
         <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -2557,13 +2844,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G13" s="2">
         <v>133000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -2589,7 +2876,7 @@
         <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2601,13 +2888,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G14" s="2">
         <v>108130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>43</v>
@@ -2633,7 +2920,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
@@ -2645,13 +2932,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G15" s="2">
         <v>112450</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>43</v>
@@ -2687,13 +2974,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>3927.7</v>
@@ -2702,7 +2989,7 @@
         <v>19.91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1">
         <v>78201</v>
@@ -2713,13 +3000,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -2728,7 +3015,7 @@
         <v>19.91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2">
         <v>78201</v>
@@ -2739,13 +3026,13 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -2754,7 +3041,7 @@
         <v>11.36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2">
         <v>88680</v>
@@ -2765,13 +3052,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -2780,7 +3067,7 @@
         <v>25.52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2">
         <v>241674</v>
@@ -2791,13 +3078,13 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -2806,7 +3093,7 @@
         <v>45.44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2">
         <v>139055</v>
@@ -2817,13 +3104,13 @@
         <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -2832,7 +3119,7 @@
         <v>28.05</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2">
         <v>130181</v>
@@ -2843,13 +3130,13 @@
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -2858,7 +3145,7 @@
         <v>64.7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2">
         <v>87098</v>
@@ -2869,13 +3156,13 @@
         <v>109</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -2884,7 +3171,7 @@
         <v>64.7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2">
         <v>134981</v>
@@ -2895,13 +3182,13 @@
         <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -2910,7 +3197,7 @@
         <v>11.19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2">
         <v>148424</v>
@@ -2931,10 +3218,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -2948,10 +3235,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
@@ -2965,10 +3252,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
@@ -2982,10 +3269,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -2999,10 +3286,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -307,31 +307,37 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>摩根富林明龍揚基金</t>
   </si>
   <si>
+    <t>摩根富林明全球a基金</t>
+  </si>
+  <si>
+    <t>霸菱全球資源美元</t>
+  </si>
+  <si>
+    <t>富達拉丁美洲基金美元</t>
+  </si>
+  <si>
+    <t>富達印度聚焦美元</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業美元</t>
+  </si>
+  <si>
+    <t>貝萊德中國基金美兀</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司屏東市林森郵局</t>
   </si>
   <si>
-    <t>摩根富林明全球a基金</t>
-  </si>
-  <si>
-    <t>霸菱全球資源美元</t>
-  </si>
-  <si>
-    <t>富達拉丁美洲基金美元</t>
-  </si>
-  <si>
-    <t>富達印度聚焦美元</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業美元</t>
-  </si>
-  <si>
-    <t>貝萊德中國基金美兀</t>
-  </si>
-  <si>
     <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>臺銀人壽</t>
@@ -2966,47 +2972,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3927.7</v>
-      </c>
-      <c r="F1" s="1">
-        <v>19.91</v>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1">
-        <v>78201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>3927.7</v>
@@ -3020,8 +3047,29 @@
       <c r="H2" s="2">
         <v>78201</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>103</v>
       </c>
@@ -3032,7 +3080,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2">
         <v>7806.4</v>
@@ -3046,8 +3094,29 @@
       <c r="H3" s="2">
         <v>88680</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>105</v>
       </c>
@@ -3058,7 +3127,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2">
         <v>326.552</v>
@@ -3072,8 +3141,29 @@
       <c r="H4" s="2">
         <v>241674</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>106</v>
       </c>
@@ -3084,7 +3174,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>105.53</v>
@@ -3098,8 +3188,29 @@
       <c r="H5" s="2">
         <v>139055</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>107</v>
       </c>
@@ -3110,7 +3221,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>160.05</v>
@@ -3124,8 +3235,29 @@
       <c r="H6" s="2">
         <v>130181</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>108</v>
       </c>
@@ -3136,7 +3268,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2">
         <v>46.42</v>
@@ -3150,8 +3282,29 @@
       <c r="H7" s="2">
         <v>87098</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>109</v>
       </c>
@@ -3162,7 +3315,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2">
         <v>71.9</v>
@@ -3176,8 +3329,29 @@
       <c r="H8" s="2">
         <v>134981</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>110</v>
       </c>
@@ -3188,7 +3362,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2">
         <v>457.38</v>
@@ -3201,6 +3375,27 @@
       </c>
       <c r="H9" s="2">
         <v>148424</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1701</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3218,10 +3413,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>45</v>
@@ -3235,10 +3430,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
@@ -3252,10 +3447,10 @@
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
@@ -3269,10 +3464,10 @@
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -3286,10 +3481,10 @@
         <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
+++ b/legislator/property/output/normal/王進士_2012-04-26_財產申報表_tmp4a4e1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -340,18 +340,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>臺銀人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>美麗人生萬能保險</t>
   </si>
   <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>牛轉錢坤萬能保險</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>超越變動額萬能壽險乙型</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -3405,61 +3411,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>125</v>
       </c>
@@ -3467,16 +3527,34 @@
         <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2">
-        <v>4415000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>126</v>
       </c>
@@ -3484,13 +3562,31 @@
         <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2">
-        <v>345281</v>
+      <c r="E5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1701</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
